--- a/task1.xlsx
+++ b/task1.xlsx
@@ -490,28 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>463</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>1932</v>
       </c>
       <c r="F2" t="n">
-        <v>85.71428571428571</v>
+        <v>112.669471715755</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H2" t="n">
-        <v>2.083971977233887</v>
+        <v>2.237856893028532</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0006613731384277344</v>
+        <v>0.0007896525519234793</v>
       </c>
       <c r="J2" t="n">
-        <v>68328</v>
+        <v>76126.5</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>2159</v>
       </c>
       <c r="F3" t="n">
-        <v>142.8571428571429</v>
+        <v>121.7858812529219</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H3" t="n">
-        <v>2.234189033508301</v>
+        <v>2.414727345534733</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0006573200225830078</v>
+        <v>0.000802689790725708</v>
       </c>
       <c r="J3" t="n">
-        <v>74250</v>
+        <v>82716.94285714286</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>441</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>813</v>
       </c>
       <c r="F4" t="n">
-        <v>42.85714285714285</v>
+        <v>61.43057503506311</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H4" t="n">
-        <v>1.998656988143921</v>
+        <v>2.223628210169928</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00108027458190918</v>
+        <v>0.0007462918758392334</v>
       </c>
       <c r="J4" t="n">
-        <v>68328</v>
+        <v>76126.5</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>832</v>
       </c>
       <c r="F5" t="n">
-        <v>28.57142857142857</v>
+        <v>61.47732585320244</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H5" t="n">
-        <v>2.200645923614502</v>
+        <v>2.393771032776151</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0006844997406005859</v>
+        <v>0.0007199874946049281</v>
       </c>
       <c r="J5" t="n">
-        <v>74250</v>
+        <v>82716.94285714286</v>
       </c>
     </row>
   </sheetData>
